--- a/4储层表/储层表.xlsx
+++ b/4储层表/储层表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12270"/>
+    <workbookView windowWidth="28800" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="磨溪016-H1_VDL_20200311(4777-6048" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -40,7 +40,10 @@
     <t>龙一14</t>
   </si>
   <si>
-    <t>2674.1--2741.9</t>
+    <t>3395.00--3498.00</t>
+  </si>
+  <si>
+    <t>103.00</t>
   </si>
   <si>
     <t>页岩气层</t>
@@ -49,13 +52,34 @@
     <t>龙一13</t>
   </si>
   <si>
-    <t>2741.9--2754.1</t>
+    <t>3498.00--3536.00</t>
+  </si>
+  <si>
+    <t>38.00</t>
   </si>
   <si>
     <t>龙一12</t>
   </si>
   <si>
-    <t>2754.1--4192</t>
+    <t>3536.00--4854.00</t>
+  </si>
+  <si>
+    <t>1318.00</t>
+  </si>
+  <si>
+    <t>龙一11</t>
+  </si>
+  <si>
+    <t>4854.00--5048.00</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>5048.00--5088.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
   </si>
 </sst>
 </file>
@@ -68,13 +92,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -199,23 +228,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +265,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,30 +301,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,48 +313,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,6 +373,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,7 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,48 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,140 +570,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -994,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="25.875" customWidth="1"/>
   </cols>
@@ -1043,51 +1073,85 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>67.8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>12.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1437.9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
